--- a/cnn/architecture.xlsx
+++ b/cnn/architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\girishng\local\learning\ai_sandbox_2025\cnn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E902AE7-7050-4A07-9AB0-4AB4F6478BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A66E79A-7DFA-4C24-B3A7-5FA966EFF97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,13 +284,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,10 +602,10 @@
       <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -626,8 +626,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -956,7 +956,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -964,6 +964,7 @@
     <col min="3" max="3" width="11.3046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.84375" customWidth="1"/>
+    <col min="6" max="6" width="9.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
